--- a/info_files/检测因素参考信息.xlsx
+++ b/info_files/检测因素参考信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15210\Detection_Works_New\info_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E897FD5-BE42-4F98-81AD-2592A4345931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88D5F3-C127-4F2C-8413-B33D050A20E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="401">
   <si>
     <t>样品收集器</t>
   </si>
@@ -1223,6 +1223,10 @@
   </si>
   <si>
     <t>是否仪器直读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1557,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11976,6 +11980,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="252" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D252" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F252" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1">
+        <v>189.6</v>
+      </c>
+      <c r="N252" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N251" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/info_files/检测因素参考信息.xlsx
+++ b/info_files/检测因素参考信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15210\Detection_Works_New\info_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88D5F3-C127-4F2C-8413-B33D050A20E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218A22A-D71A-4EA8-B23D-0A6AD54369CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>溶剂解吸活性炭管</t>
   </si>
   <si>
-    <t>室温7d、4℃更长</t>
-  </si>
-  <si>
     <t>正己烷</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>苯</t>
   </si>
   <si>
-    <t>室温7d、冰箱14d</t>
-  </si>
-  <si>
     <t>甲苯</t>
   </si>
   <si>
@@ -373,9 +367,6 @@
     <t>甲醛</t>
   </si>
   <si>
-    <t>室温24h、4℃3d</t>
-  </si>
-  <si>
     <t>0.2*15</t>
   </si>
   <si>
@@ -718,15 +709,9 @@
     <t>氯乙烯</t>
   </si>
   <si>
-    <t>室温5d、冰箱7d、-20℃ 14d</t>
-  </si>
-  <si>
     <t>丙烯醇</t>
   </si>
   <si>
-    <t>室温尽快、-20℃ 5d</t>
-  </si>
-  <si>
     <t>氯乙醇</t>
   </si>
   <si>
@@ -796,9 +781,6 @@
     <t>三乙基氯化锡</t>
   </si>
   <si>
-    <t>常温3d、4℃ 7d、-18℃ 14d</t>
-  </si>
-  <si>
     <t>碘及其化合物</t>
   </si>
   <si>
@@ -821,9 +803,6 @@
   </si>
   <si>
     <t>氯丙烯</t>
-  </si>
-  <si>
-    <t>常温3d、4℃ 7d</t>
   </si>
   <si>
     <t>二氯丙烯</t>
@@ -1227,6 +1206,33 @@
   </si>
   <si>
     <t>紫外线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温7d\n4℃更长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温7d\n冰箱14d</t>
+  </si>
+  <si>
+    <t>室温24h\n4℃3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温5d\n冰箱7d\n-20℃ 14d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室温尽快\n-20℃ 5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常温3d\n4℃ 7d\n-18℃ 14d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常温3d\n4℃ 7d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1563,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1580,7 +1586,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1589,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1604,22 +1610,22 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -2604,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>10</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="30" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>71</v>
@@ -2648,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>10</v>
@@ -2674,7 +2680,7 @@
     </row>
     <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>71</v>
@@ -2692,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>10</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>71</v>
@@ -2736,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>10</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>71</v>
@@ -2780,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
@@ -2806,7 +2812,7 @@
     </row>
     <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
@@ -2824,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
@@ -2850,10 +2856,10 @@
     </row>
     <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2894,10 +2900,10 @@
     </row>
     <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2915,7 +2921,7 @@
         <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="1">
         <v>0.1</v>
@@ -2934,7 +2940,7 @@
     </row>
     <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
@@ -2952,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
@@ -2978,7 +2984,7 @@
     </row>
     <row r="38" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>71</v>
@@ -2996,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>10</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="39" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>71</v>
@@ -3040,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>10</v>
@@ -3066,7 +3072,7 @@
     </row>
     <row r="40" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -3084,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>10</v>
@@ -3110,7 +3116,7 @@
     </row>
     <row r="41" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>71</v>
@@ -3128,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>10</v>
@@ -3154,7 +3160,7 @@
     </row>
     <row r="42" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>71</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>71</v>
@@ -3242,7 +3248,7 @@
     </row>
     <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>71</v>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="45" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>71</v>
@@ -3330,7 +3336,7 @@
     </row>
     <row r="46" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>71</v>
@@ -3374,7 +3380,7 @@
     </row>
     <row r="47" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>71</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>71</v>
@@ -3462,10 +3468,10 @@
     </row>
     <row r="49" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3483,7 +3489,7 @@
         <v>49</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I49" s="1">
         <v>0.3</v>
@@ -3506,10 +3512,10 @@
     </row>
     <row r="50" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3527,7 +3533,7 @@
         <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I50" s="1">
         <v>0.3</v>
@@ -3550,10 +3556,10 @@
     </row>
     <row r="51" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3568,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>10</v>
@@ -3594,10 +3600,10 @@
     </row>
     <row r="52" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3612,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
@@ -3638,10 +3644,10 @@
     </row>
     <row r="53" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3656,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
@@ -3682,10 +3688,10 @@
     </row>
     <row r="54" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -3703,7 +3709,7 @@
         <v>49</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I54" s="1">
         <v>0.1</v>
@@ -3726,7 +3732,7 @@
     </row>
     <row r="55" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>71</v>
@@ -3747,7 +3753,7 @@
         <v>49</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I55" s="1">
         <v>0.1</v>
@@ -3770,7 +3776,7 @@
     </row>
     <row r="56" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>71</v>
@@ -3791,7 +3797,7 @@
         <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I56" s="1">
         <v>0.1</v>
@@ -3814,10 +3820,10 @@
     </row>
     <row r="57" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3832,10 +3838,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I57" s="1">
         <v>0.1</v>
@@ -3858,10 +3864,10 @@
     </row>
     <row r="58" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>32</v>
@@ -3876,10 +3882,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I58" s="1">
         <v>0.3</v>
@@ -3902,10 +3908,10 @@
     </row>
     <row r="59" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3920,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1">
         <v>0.3</v>
@@ -3946,7 +3952,7 @@
     </row>
     <row r="60" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>67</v>
@@ -3964,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I60" s="1">
         <v>0.2</v>
@@ -3986,7 +3992,7 @@
     </row>
     <row r="61" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>71</v>
@@ -4007,7 +4013,7 @@
         <v>49</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61" s="1">
         <v>0.1</v>
@@ -4026,10 +4032,10 @@
     </row>
     <row r="62" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>32</v>
@@ -4044,10 +4050,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I62" s="1">
         <v>0.1</v>
@@ -4070,10 +4076,10 @@
     </row>
     <row r="63" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>32</v>
@@ -4091,7 +4097,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I63" s="1">
         <v>0.3</v>
@@ -4114,10 +4120,10 @@
     </row>
     <row r="64" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>32</v>
@@ -4135,7 +4141,7 @@
         <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -4158,10 +4164,10 @@
     </row>
     <row r="65" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>32</v>
@@ -4179,7 +4185,7 @@
         <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -4202,7 +4208,7 @@
     </row>
     <row r="66" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
@@ -4242,7 +4248,7 @@
     </row>
     <row r="67" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>41</v>
@@ -4282,28 +4288,28 @@
     </row>
     <row r="68" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -4318,7 +4324,7 @@
         <v>60</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -4326,10 +4332,10 @@
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>32</v>
@@ -4344,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
@@ -4362,7 +4368,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N69" s="1">
         <v>0</v>
@@ -4370,10 +4376,10 @@
     </row>
     <row r="70" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>32</v>
@@ -4391,7 +4397,7 @@
         <v>65</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I70" s="1">
         <v>0.5</v>
@@ -4414,10 +4420,10 @@
     </row>
     <row r="71" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>32</v>
@@ -4435,7 +4441,7 @@
         <v>65</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I71" s="1">
         <v>0.5</v>
@@ -4458,10 +4464,10 @@
     </row>
     <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>32</v>
@@ -4498,7 +4504,7 @@
     </row>
     <row r="73" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>48</v>
@@ -4536,10 +4542,10 @@
     </row>
     <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>32</v>
@@ -4554,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>55</v>
@@ -4576,7 +4582,7 @@
     </row>
     <row r="75" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>54</v>
@@ -4616,7 +4622,7 @@
     </row>
     <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>54</v>
@@ -4634,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>39</v>
@@ -4656,7 +4662,7 @@
     </row>
     <row r="77" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>54</v>
@@ -4696,7 +4702,7 @@
     </row>
     <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>71</v>
@@ -4714,10 +4720,10 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I78" s="1">
         <v>0.2</v>
@@ -4740,7 +4746,7 @@
     </row>
     <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>67</v>
@@ -4761,7 +4767,7 @@
         <v>34</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I79" s="1">
         <v>0.1</v>
@@ -4780,10 +4786,10 @@
     </row>
     <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>32</v>
@@ -4798,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I80" s="1">
         <v>0.2</v>
@@ -4824,10 +4830,10 @@
     </row>
     <row r="81" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>32</v>
@@ -4842,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>10</v>
@@ -4868,10 +4874,10 @@
     </row>
     <row r="82" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>32</v>
@@ -4886,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>10</v>
@@ -4912,10 +4918,10 @@
     </row>
     <row r="83" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>32</v>
@@ -4933,7 +4939,7 @@
         <v>65</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I83" s="1">
         <v>0.2</v>
@@ -4956,10 +4962,10 @@
     </row>
     <row r="84" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>32</v>
@@ -4974,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I84" s="1">
         <v>0.2</v>
@@ -5000,10 +5006,10 @@
     </row>
     <row r="85" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>32</v>
@@ -5021,7 +5027,7 @@
         <v>65</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I85" s="1">
         <v>0.2</v>
@@ -5044,10 +5050,10 @@
     </row>
     <row r="86" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>32</v>
@@ -5062,10 +5068,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I86" s="1">
         <v>0.2</v>
@@ -5088,10 +5094,10 @@
     </row>
     <row r="87" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>32</v>
@@ -5109,7 +5115,7 @@
         <v>49</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I87" s="1">
         <v>0.3</v>
@@ -5128,10 +5134,10 @@
     </row>
     <row r="88" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>32</v>
@@ -5149,7 +5155,7 @@
         <v>49</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I88" s="1">
         <v>0.2</v>
@@ -5172,10 +5178,10 @@
     </row>
     <row r="89" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>32</v>
@@ -5193,7 +5199,7 @@
         <v>49</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I89" s="1">
         <v>0.2</v>
@@ -5216,10 +5222,10 @@
     </row>
     <row r="90" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>32</v>
@@ -5237,7 +5243,7 @@
         <v>49</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I90" s="1">
         <v>0.2</v>
@@ -5260,10 +5266,10 @@
     </row>
     <row r="91" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>32</v>
@@ -5281,7 +5287,7 @@
         <v>49</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I91" s="1">
         <v>0.2</v>
@@ -5304,10 +5310,10 @@
     </row>
     <row r="92" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>32</v>
@@ -5325,7 +5331,7 @@
         <v>49</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I92" s="1">
         <v>0.2</v>
@@ -5348,10 +5354,10 @@
     </row>
     <row r="93" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>32</v>
@@ -5369,7 +5375,7 @@
         <v>49</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I93" s="1">
         <v>0.2</v>
@@ -5392,10 +5398,10 @@
     </row>
     <row r="94" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>32</v>
@@ -5436,10 +5442,10 @@
     </row>
     <row r="95" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>32</v>
@@ -5457,7 +5463,7 @@
         <v>49</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I95" s="1">
         <v>0.1</v>
@@ -5476,10 +5482,10 @@
     </row>
     <row r="96" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>32</v>
@@ -5494,10 +5500,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I96" s="1">
         <v>0.3</v>
@@ -5516,7 +5522,7 @@
     </row>
     <row r="97" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>54</v>
@@ -5556,10 +5562,10 @@
     </row>
     <row r="98" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>32</v>
@@ -5577,7 +5583,7 @@
         <v>49</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I98" s="1">
         <v>0.2</v>
@@ -5596,10 +5602,10 @@
     </row>
     <row r="99" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>32</v>
@@ -5617,7 +5623,7 @@
         <v>65</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I99" s="1">
         <v>0.1</v>
@@ -5636,10 +5642,10 @@
     </row>
     <row r="100" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>32</v>
@@ -5657,7 +5663,7 @@
         <v>49</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I100" s="1">
         <v>2</v>
@@ -5680,10 +5686,10 @@
     </row>
     <row r="101" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>32</v>
@@ -5701,7 +5707,7 @@
         <v>49</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I101" s="1">
         <v>0.2</v>
@@ -5724,10 +5730,10 @@
     </row>
     <row r="102" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>32</v>
@@ -5764,10 +5770,10 @@
     </row>
     <row r="103" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>32</v>
@@ -5804,7 +5810,7 @@
     </row>
     <row r="104" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>31</v>
@@ -5844,10 +5850,10 @@
     </row>
     <row r="105" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>32</v>
@@ -5888,10 +5894,10 @@
     </row>
     <row r="106" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>32</v>
@@ -5932,10 +5938,10 @@
     </row>
     <row r="107" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>32</v>
@@ -5976,10 +5982,10 @@
     </row>
     <row r="108" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>32</v>
@@ -6020,10 +6026,10 @@
     </row>
     <row r="109" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>32</v>
@@ -6064,10 +6070,10 @@
     </row>
     <row r="110" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>32</v>
@@ -6108,10 +6114,10 @@
     </row>
     <row r="111" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>32</v>
@@ -6129,7 +6135,7 @@
         <v>49</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I111" s="1">
         <v>0.1</v>
@@ -6148,10 +6154,10 @@
     </row>
     <row r="112" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>32</v>
@@ -6166,10 +6172,10 @@
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I112" s="1">
         <v>0.2</v>
@@ -6192,10 +6198,10 @@
     </row>
     <row r="113" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>32</v>
@@ -6210,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I113" s="1">
         <v>0.2</v>
@@ -6236,10 +6242,10 @@
     </row>
     <row r="114" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>32</v>
@@ -6257,7 +6263,7 @@
         <v>62</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I114" s="1">
         <v>0.5</v>
@@ -6280,10 +6286,10 @@
     </row>
     <row r="115" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>32</v>
@@ -6301,7 +6307,7 @@
         <v>62</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I115" s="1">
         <v>0.5</v>
@@ -6324,10 +6330,10 @@
     </row>
     <row r="116" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>32</v>
@@ -6345,7 +6351,7 @@
         <v>62</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I116" s="1">
         <v>0.5</v>
@@ -6368,10 +6374,10 @@
     </row>
     <row r="117" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>32</v>
@@ -6389,7 +6395,7 @@
         <v>49</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I117" s="1">
         <v>0.5</v>
@@ -6412,10 +6418,10 @@
     </row>
     <row r="118" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>32</v>
@@ -6433,7 +6439,7 @@
         <v>49</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I118" s="1">
         <v>0.5</v>
@@ -6456,10 +6462,10 @@
     </row>
     <row r="119" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>32</v>
@@ -6477,7 +6483,7 @@
         <v>49</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I119" s="1">
         <v>0.5</v>
@@ -6500,10 +6506,10 @@
     </row>
     <row r="120" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>32</v>
@@ -6540,10 +6546,10 @@
     </row>
     <row r="121" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>32</v>
@@ -6561,7 +6567,7 @@
         <v>49</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I121" s="1">
         <v>0.2</v>
@@ -6584,10 +6590,10 @@
     </row>
     <row r="122" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>32</v>
@@ -6605,7 +6611,7 @@
         <v>49</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I122" s="1">
         <v>0.2</v>
@@ -6624,10 +6630,10 @@
     </row>
     <row r="123" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>32</v>
@@ -6645,7 +6651,7 @@
         <v>49</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I123" s="1">
         <v>0.2</v>
@@ -6664,10 +6670,10 @@
     </row>
     <row r="124" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>32</v>
@@ -6685,7 +6691,7 @@
         <v>49</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I124" s="1">
         <v>0.2</v>
@@ -6704,10 +6710,10 @@
     </row>
     <row r="125" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>32</v>
@@ -6725,7 +6731,7 @@
         <v>49</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I125" s="1">
         <v>0.2</v>
@@ -6748,10 +6754,10 @@
     </row>
     <row r="126" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>32</v>
@@ -6769,7 +6775,7 @@
         <v>49</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I126" s="1">
         <v>0.2</v>
@@ -6792,10 +6798,10 @@
     </row>
     <row r="127" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>32</v>
@@ -6813,7 +6819,7 @@
         <v>49</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I127" s="1">
         <v>0.2</v>
@@ -6836,10 +6842,10 @@
     </row>
     <row r="128" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>32</v>
@@ -6857,7 +6863,7 @@
         <v>49</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I128" s="1">
         <v>0.2</v>
@@ -6880,10 +6886,10 @@
     </row>
     <row r="129" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>32</v>
@@ -6901,7 +6907,7 @@
         <v>49</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I129" s="1">
         <v>0.2</v>
@@ -6924,10 +6930,10 @@
     </row>
     <row r="130" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>32</v>
@@ -6945,7 +6951,7 @@
         <v>49</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I130" s="1">
         <v>0.2</v>
@@ -6968,10 +6974,10 @@
     </row>
     <row r="131" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>32</v>
@@ -6989,7 +6995,7 @@
         <v>49</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I131" s="1">
         <v>0.1</v>
@@ -7008,10 +7014,10 @@
     </row>
     <row r="132" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>32</v>
@@ -7026,10 +7032,10 @@
         <v>1</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I132" s="1">
         <v>0.1</v>
@@ -7048,10 +7054,10 @@
     </row>
     <row r="133" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>32</v>
@@ -7066,10 +7072,10 @@
         <v>1</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I133" s="1">
         <v>0.5</v>
@@ -7092,10 +7098,10 @@
     </row>
     <row r="134" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>32</v>
@@ -7110,10 +7116,10 @@
         <v>1</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I134" s="1">
         <v>0.3</v>
@@ -7132,28 +7138,28 @@
     </row>
     <row r="135" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="I135" s="1">
         <v>1</v>
@@ -7176,10 +7182,10 @@
     </row>
     <row r="136" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>32</v>
@@ -7194,10 +7200,10 @@
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I136" s="1">
         <v>1</v>
@@ -7220,7 +7226,7 @@
     </row>
     <row r="137" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>67</v>
@@ -7238,10 +7244,10 @@
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I137" s="1">
         <v>0.5</v>
@@ -7252,7 +7258,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N137" s="1">
         <v>0</v>
@@ -7260,7 +7266,7 @@
     </row>
     <row r="138" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>54</v>
@@ -7300,7 +7306,7 @@
     </row>
     <row r="139" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>54</v>
@@ -7318,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>39</v>
@@ -7340,7 +7346,7 @@
     </row>
     <row r="140" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>54</v>
@@ -7358,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>39</v>
@@ -7380,7 +7386,7 @@
     </row>
     <row r="141" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>71</v>
@@ -7398,10 +7404,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I141" s="1">
         <v>0.2</v>
@@ -7424,7 +7430,7 @@
     </row>
     <row r="142" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>71</v>
@@ -7445,7 +7451,7 @@
         <v>49</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I142" s="1">
         <v>0.3</v>
@@ -7468,10 +7474,10 @@
     </row>
     <row r="143" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>32</v>
@@ -7486,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>10</v>
@@ -7512,7 +7518,7 @@
     </row>
     <row r="144" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>71</v>
@@ -7530,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>10</v>
@@ -7556,7 +7562,7 @@
     </row>
     <row r="145" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>71</v>
@@ -7577,7 +7583,7 @@
         <v>49</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I145" s="1">
         <v>0.1</v>
@@ -7596,10 +7602,10 @@
     </row>
     <row r="146" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>32</v>
@@ -7614,10 +7620,10 @@
         <v>1</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I146" s="1">
         <v>1</v>
@@ -7640,10 +7646,10 @@
     </row>
     <row r="147" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>32</v>
@@ -7658,10 +7664,10 @@
         <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -7684,7 +7690,7 @@
     </row>
     <row r="148" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>54</v>
@@ -7724,7 +7730,7 @@
     </row>
     <row r="149" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>71</v>
@@ -7742,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>10</v>
@@ -7768,7 +7774,7 @@
     </row>
     <row r="150" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>71</v>
@@ -7786,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>10</v>
@@ -7812,10 +7818,10 @@
     </row>
     <row r="151" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>32</v>
@@ -7833,7 +7839,7 @@
         <v>49</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I151" s="1">
         <v>0.3</v>
@@ -7856,10 +7862,10 @@
     </row>
     <row r="152" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>32</v>
@@ -7900,10 +7906,10 @@
     </row>
     <row r="153" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>32</v>
@@ -7921,7 +7927,7 @@
         <v>12</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I153" s="1">
         <v>0.3</v>
@@ -7944,10 +7950,10 @@
     </row>
     <row r="154" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>32</v>
@@ -7962,10 +7968,10 @@
         <v>1</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I154" s="1">
         <v>0.2</v>
@@ -7988,10 +7994,10 @@
     </row>
     <row r="155" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>32</v>
@@ -8009,7 +8015,7 @@
         <v>49</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I155" s="1">
         <v>0.2</v>
@@ -8032,10 +8038,10 @@
     </row>
     <row r="156" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>32</v>
@@ -8053,7 +8059,7 @@
         <v>49</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I156" s="1">
         <v>0.3</v>
@@ -8076,10 +8082,10 @@
     </row>
     <row r="157" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>32</v>
@@ -8120,10 +8126,10 @@
     </row>
     <row r="158" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>32</v>
@@ -8141,7 +8147,7 @@
         <v>49</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I158" s="1">
         <v>0.2</v>
@@ -8164,7 +8170,7 @@
     </row>
     <row r="159" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>54</v>
@@ -8204,7 +8210,7 @@
     </row>
     <row r="160" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>67</v>
@@ -8244,7 +8250,7 @@
     </row>
     <row r="161" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>54</v>
@@ -8284,10 +8290,10 @@
     </row>
     <row r="162" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>32</v>
@@ -8302,10 +8308,10 @@
         <v>1</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I162" s="1">
         <v>1</v>
@@ -8328,10 +8334,10 @@
     </row>
     <row r="163" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>32</v>
@@ -8368,7 +8374,7 @@
     </row>
     <row r="164" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>71</v>
@@ -8386,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>10</v>
@@ -8412,10 +8418,10 @@
     </row>
     <row r="165" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>32</v>
@@ -8433,7 +8439,7 @@
         <v>49</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I165" s="1">
         <v>0.2</v>
@@ -8456,7 +8462,7 @@
     </row>
     <row r="166" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>71</v>
@@ -8500,7 +8506,7 @@
     </row>
     <row r="167" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>71</v>
@@ -8544,10 +8550,10 @@
     </row>
     <row r="168" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>32</v>
@@ -8562,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I168" s="1">
         <v>0.2</v>
@@ -8588,10 +8594,10 @@
     </row>
     <row r="169" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>32</v>
@@ -8606,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I169" s="1">
         <v>0.2</v>
@@ -8632,10 +8638,10 @@
     </row>
     <row r="170" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>32</v>
@@ -8653,7 +8659,7 @@
         <v>65</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I170" s="1">
         <v>0.2</v>
@@ -8676,10 +8682,10 @@
     </row>
     <row r="171" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>32</v>
@@ -8694,10 +8700,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I171" s="1">
         <v>1</v>
@@ -8720,7 +8726,7 @@
     </row>
     <row r="172" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>71</v>
@@ -8764,10 +8770,10 @@
     </row>
     <row r="173" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>32</v>
@@ -8782,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>10</v>
@@ -8808,10 +8814,10 @@
     </row>
     <row r="174" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>32</v>
@@ -8829,7 +8835,7 @@
         <v>49</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I174" s="1">
         <v>0.2</v>
@@ -8848,7 +8854,7 @@
     </row>
     <row r="175" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>71</v>
@@ -8866,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>10</v>
@@ -8892,10 +8898,10 @@
     </row>
     <row r="176" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>32</v>
@@ -8932,7 +8938,7 @@
     </row>
     <row r="177" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>54</v>
@@ -8950,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>55</v>
@@ -8972,10 +8978,10 @@
     </row>
     <row r="178" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>32</v>
@@ -8990,10 +8996,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I178" s="1">
         <v>0.3</v>
@@ -9016,10 +9022,10 @@
     </row>
     <row r="179" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>32</v>
@@ -9037,7 +9043,7 @@
         <v>49</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I179" s="1">
         <v>1</v>
@@ -9060,7 +9066,7 @@
     </row>
     <row r="180" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>71</v>
@@ -9081,7 +9087,7 @@
         <v>65</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I180" s="1">
         <v>0.5</v>
@@ -9104,10 +9110,10 @@
     </row>
     <row r="181" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>32</v>
@@ -9125,7 +9131,7 @@
         <v>49</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I181" s="1">
         <v>0.2</v>
@@ -9144,10 +9150,10 @@
     </row>
     <row r="182" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>32</v>
@@ -9165,7 +9171,7 @@
         <v>49</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I182" s="1">
         <v>1</v>
@@ -9188,10 +9194,10 @@
     </row>
     <row r="183" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>32</v>
@@ -9209,7 +9215,7 @@
         <v>49</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
@@ -9232,10 +9238,10 @@
     </row>
     <row r="184" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>32</v>
@@ -9250,10 +9256,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I184" s="1">
         <v>0.2</v>
@@ -9276,10 +9282,10 @@
     </row>
     <row r="185" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>32</v>
@@ -9297,7 +9303,7 @@
         <v>49</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I185" s="1">
         <v>0.2</v>
@@ -9320,10 +9326,10 @@
     </row>
     <row r="186" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>32</v>
@@ -9341,7 +9347,7 @@
         <v>49</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I186" s="1">
         <v>3</v>
@@ -9364,10 +9370,10 @@
     </row>
     <row r="187" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>32</v>
@@ -9382,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I187" s="1">
         <v>1</v>
@@ -9408,7 +9414,7 @@
     </row>
     <row r="188" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>67</v>
@@ -9448,13 +9454,13 @@
     </row>
     <row r="189" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
@@ -9480,26 +9486,26 @@
     </row>
     <row r="190" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F190" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I190" s="1">
         <v>5</v>
@@ -9518,26 +9524,26 @@
     </row>
     <row r="191" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F191" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I191" s="1">
         <v>5</v>
@@ -9560,26 +9566,26 @@
     </row>
     <row r="192" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D192" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F192" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I192" s="1">
         <v>5</v>
@@ -9602,19 +9608,19 @@
     </row>
     <row r="193" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F193" s="1" t="b">
         <v>1</v>
@@ -9623,7 +9629,7 @@
         <v>49</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I193" s="1">
         <v>25</v>
@@ -9646,26 +9652,26 @@
     </row>
     <row r="194" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I194" s="1">
         <v>20</v>
@@ -9688,26 +9694,26 @@
     </row>
     <row r="195" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F195" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I195" s="1">
         <v>20</v>
@@ -9730,26 +9736,26 @@
     </row>
     <row r="196" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F196" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I196" s="1">
         <v>20</v>
@@ -9768,19 +9774,19 @@
     </row>
     <row r="197" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F197" s="1" t="b">
         <v>1</v>
@@ -9789,7 +9795,7 @@
         <v>49</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I197" s="1">
         <v>4</v>
@@ -9812,26 +9818,26 @@
     </row>
     <row r="198" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F198" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I198" s="1">
         <v>5</v>
@@ -9850,28 +9856,28 @@
     </row>
     <row r="199" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F199" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I199" s="1">
         <v>3</v>
@@ -9894,19 +9900,19 @@
     </row>
     <row r="200" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D200" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F200" s="1" t="b">
         <v>1</v>
@@ -9915,7 +9921,7 @@
         <v>49</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I200" s="1">
         <v>3</v>
@@ -9938,28 +9944,28 @@
     </row>
     <row r="201" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F201" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I201" s="1">
         <v>5</v>
@@ -9982,28 +9988,28 @@
     </row>
     <row r="202" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D202" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F202" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I202" s="1">
         <v>5</v>
@@ -10026,28 +10032,28 @@
     </row>
     <row r="203" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F203" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I203" s="1">
         <v>5</v>
@@ -10070,28 +10076,28 @@
     </row>
     <row r="204" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D204" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F204" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I204" s="1">
         <v>5</v>
@@ -10114,28 +10120,28 @@
     </row>
     <row r="205" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D205" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F205" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I205" s="1">
         <v>5</v>
@@ -10158,28 +10164,28 @@
     </row>
     <row r="206" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F206" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I206" s="1">
         <v>5</v>
@@ -10202,28 +10208,28 @@
     </row>
     <row r="207" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F207" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I207" s="1">
         <v>5</v>
@@ -10246,26 +10252,26 @@
     </row>
     <row r="208" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F208" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I208" s="1">
         <v>5</v>
@@ -10284,28 +10290,28 @@
     </row>
     <row r="209" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D209" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I209" s="1">
         <v>5</v>
@@ -10324,28 +10330,28 @@
     </row>
     <row r="210" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F210" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I210" s="1">
         <v>5</v>
@@ -10364,28 +10370,28 @@
     </row>
     <row r="211" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F211" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I211" s="1">
         <v>5</v>
@@ -10408,28 +10414,28 @@
     </row>
     <row r="212" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I212" s="1">
         <v>5</v>
@@ -10452,28 +10458,28 @@
     </row>
     <row r="213" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I213" s="1">
         <v>5</v>
@@ -10496,28 +10502,28 @@
     </row>
     <row r="214" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I214" s="1">
         <v>5</v>
@@ -10536,28 +10542,28 @@
     </row>
     <row r="215" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F215" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I215" s="1">
         <v>5</v>
@@ -10580,28 +10586,28 @@
     </row>
     <row r="216" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F216" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I216" s="1">
         <v>5</v>
@@ -10624,28 +10630,28 @@
     </row>
     <row r="217" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F217" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I217" s="1">
         <v>5</v>
@@ -10668,28 +10674,28 @@
     </row>
     <row r="218" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F218" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I218" s="1">
         <v>5</v>
@@ -10712,28 +10718,28 @@
     </row>
     <row r="219" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I219" s="1">
         <v>5</v>
@@ -10756,28 +10762,28 @@
     </row>
     <row r="220" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D220" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F220" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I220" s="1">
         <v>5</v>
@@ -10800,28 +10806,28 @@
     </row>
     <row r="221" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D221" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F221" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I221" s="1">
         <v>5</v>
@@ -10844,28 +10850,28 @@
     </row>
     <row r="222" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D222" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F222" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I222" s="1">
         <v>5</v>
@@ -10888,19 +10894,19 @@
     </row>
     <row r="223" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F223" s="1" t="b">
         <v>1</v>
@@ -10909,7 +10915,7 @@
         <v>49</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I223" s="1">
         <v>2</v>
@@ -10932,19 +10938,19 @@
     </row>
     <row r="224" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F224" s="1" t="b">
         <v>1</v>
@@ -10953,7 +10959,7 @@
         <v>49</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I224" s="1">
         <v>2</v>
@@ -10976,28 +10982,28 @@
     </row>
     <row r="225" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F225" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I225" s="1">
         <v>5</v>
@@ -11020,19 +11026,19 @@
     </row>
     <row r="226" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F226" s="1" t="b">
         <v>1</v>
@@ -11041,7 +11047,7 @@
         <v>62</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I226" s="1">
         <v>5</v>
@@ -11064,28 +11070,28 @@
     </row>
     <row r="227" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D227" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F227" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I227" s="1">
         <v>5</v>
@@ -11108,28 +11114,28 @@
     </row>
     <row r="228" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I228" s="1">
         <v>5</v>
@@ -11152,19 +11158,19 @@
     </row>
     <row r="229" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F229" s="1" t="b">
         <v>1</v>
@@ -11173,7 +11179,7 @@
         <v>62</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I229" s="1">
         <v>5</v>
@@ -11196,28 +11202,28 @@
     </row>
     <row r="230" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D230" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F230" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I230" s="1">
         <v>5</v>
@@ -11240,19 +11246,19 @@
     </row>
     <row r="231" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D231" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F231" s="1" t="b">
         <v>1</v>
@@ -11261,7 +11267,7 @@
         <v>49</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I231" s="1">
         <v>5</v>
@@ -11284,28 +11290,28 @@
     </row>
     <row r="232" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F232" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I232" s="1">
         <v>5</v>
@@ -11328,19 +11334,19 @@
     </row>
     <row r="233" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F233" s="1" t="b">
         <v>1</v>
@@ -11349,7 +11355,7 @@
         <v>49</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I233" s="1">
         <v>5</v>
@@ -11372,19 +11378,19 @@
     </row>
     <row r="234" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F234" s="1" t="b">
         <v>1</v>
@@ -11393,7 +11399,7 @@
         <v>49</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I234" s="1">
         <v>5</v>
@@ -11416,19 +11422,19 @@
     </row>
     <row r="235" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F235" s="1" t="b">
         <v>1</v>
@@ -11437,7 +11443,7 @@
         <v>49</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I235" s="1">
         <v>5</v>
@@ -11460,13 +11466,13 @@
     </row>
     <row r="236" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
@@ -11492,13 +11498,13 @@
     </row>
     <row r="237" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
@@ -11524,28 +11530,28 @@
     </row>
     <row r="238" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F238" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I238" s="1">
         <v>5</v>
@@ -11568,13 +11574,13 @@
     </row>
     <row r="239" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -11600,13 +11606,13 @@
     </row>
     <row r="240" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>1</v>
@@ -11632,13 +11638,13 @@
     </row>
     <row r="241" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
@@ -11664,13 +11670,13 @@
     </row>
     <row r="242" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D242" s="1" t="b">
         <v>1</v>
@@ -11696,13 +11702,13 @@
     </row>
     <row r="243" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
@@ -11726,13 +11732,13 @@
     </row>
     <row r="244" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
@@ -11758,13 +11764,13 @@
     </row>
     <row r="245" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -11790,13 +11796,13 @@
     </row>
     <row r="246" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -11822,13 +11828,13 @@
     </row>
     <row r="247" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -11854,13 +11860,13 @@
     </row>
     <row r="248" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
@@ -11886,13 +11892,13 @@
     </row>
     <row r="249" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -11918,13 +11924,13 @@
     </row>
     <row r="250" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
@@ -11950,13 +11956,13 @@
     </row>
     <row r="251" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
@@ -11982,13 +11988,13 @@
     </row>
     <row r="252" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>

--- a/info_files/检测因素参考信息.xlsx
+++ b/info_files/检测因素参考信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15210\Detection_Works_New\info_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218A22A-D71A-4EA8-B23D-0A6AD54369CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE57127-45DB-4D1E-B07C-F15706B0054E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="400">
   <si>
     <t>样品收集器</t>
   </si>
@@ -31,9 +31,6 @@
     <t>采样仪器</t>
   </si>
   <si>
-    <t>收集方式</t>
-  </si>
-  <si>
     <t>是否需要空白</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>戊烷（全部异构体）</t>
   </si>
   <si>
-    <t>溶剂解吸活性炭管</t>
-  </si>
-  <si>
     <t>正己烷</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>环氧乙烷</t>
   </si>
   <si>
-    <t>热解吸活性炭管</t>
-  </si>
-  <si>
     <t>0-5℃当天</t>
   </si>
   <si>
@@ -782,9 +773,6 @@
   </si>
   <si>
     <t>碘及其化合物</t>
-  </si>
-  <si>
-    <t>碱性活性炭管</t>
   </si>
   <si>
     <t>挥发性有机化合物</t>
@@ -1233,6 +1221,17 @@
   </si>
   <si>
     <t>常温3d\n4℃ 7d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碱性活性碳管</t>
+  </si>
+  <si>
+    <t>收集方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1569,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1586,68 +1585,70 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="1">
         <v>0.1</v>
@@ -1670,21 +1671,23 @@
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1700,21 +1703,23 @@
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1730,21 +1735,23 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1760,16 +1767,18 @@
     </row>
     <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
@@ -1788,21 +1797,23 @@
     </row>
     <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1818,21 +1829,23 @@
     </row>
     <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1848,21 +1861,23 @@
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1878,21 +1893,23 @@
     </row>
     <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1908,21 +1925,23 @@
     </row>
     <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1938,21 +1957,23 @@
     </row>
     <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1968,19 +1989,19 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F13" s="1" t="b">
         <v>0</v>
@@ -2000,19 +2021,19 @@
     </row>
     <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
@@ -2032,28 +2053,28 @@
     </row>
     <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
@@ -2072,28 +2093,28 @@
     </row>
     <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
@@ -2112,28 +2133,28 @@
     </row>
     <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I17" s="1">
         <v>0.5</v>
@@ -2152,28 +2173,28 @@
     </row>
     <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I18" s="1">
         <v>0.5</v>
@@ -2192,28 +2213,28 @@
     </row>
     <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I19" s="1">
         <v>0.2</v>
@@ -2232,28 +2253,28 @@
     </row>
     <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -2272,28 +2293,28 @@
     </row>
     <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1">
         <v>0.5</v>
@@ -2312,28 +2333,28 @@
     </row>
     <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2352,28 +2373,28 @@
     </row>
     <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
@@ -2392,28 +2413,28 @@
     </row>
     <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -2432,28 +2453,28 @@
     </row>
     <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="1">
         <v>0.5</v>
@@ -2472,28 +2493,28 @@
     </row>
     <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="1">
         <v>0.5</v>
@@ -2512,28 +2533,28 @@
     </row>
     <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I27" s="1">
         <v>0.5</v>
@@ -2552,28 +2573,28 @@
     </row>
     <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="1">
         <v>0.5</v>
@@ -2592,28 +2613,28 @@
     </row>
     <row r="29" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" s="1">
         <v>0.1</v>
@@ -2636,28 +2657,28 @@
     </row>
     <row r="30" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" s="1">
         <v>0.1</v>
@@ -2680,28 +2701,28 @@
     </row>
     <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="1">
         <v>0.1</v>
@@ -2724,28 +2745,28 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="1">
         <v>0.1</v>
@@ -2768,28 +2789,28 @@
     </row>
     <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="1">
         <v>0.1</v>
@@ -2812,28 +2833,28 @@
     </row>
     <row r="34" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" s="1">
         <v>0.1</v>
@@ -2856,28 +2877,28 @@
     </row>
     <row r="35" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="1">
         <v>0.1</v>
@@ -2900,28 +2921,28 @@
     </row>
     <row r="36" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I36" s="1">
         <v>0.1</v>
@@ -2940,28 +2961,28 @@
     </row>
     <row r="37" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" s="1">
         <v>0.1</v>
@@ -2984,28 +3005,28 @@
     </row>
     <row r="38" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" s="1">
         <v>0.1</v>
@@ -3028,28 +3049,28 @@
     </row>
     <row r="39" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" s="1">
         <v>0.1</v>
@@ -3072,28 +3093,28 @@
     </row>
     <row r="40" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" s="1">
         <v>0.1</v>
@@ -3116,28 +3137,28 @@
     </row>
     <row r="41" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="1">
         <v>0.1</v>
@@ -3160,28 +3181,28 @@
     </row>
     <row r="42" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" s="1">
         <v>0.1</v>
@@ -3204,28 +3225,28 @@
     </row>
     <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" s="1">
         <v>0.1</v>
@@ -3248,28 +3269,28 @@
     </row>
     <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" s="1">
         <v>0.1</v>
@@ -3292,28 +3313,28 @@
     </row>
     <row r="45" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" s="1">
         <v>0.1</v>
@@ -3336,28 +3357,28 @@
     </row>
     <row r="46" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" s="1">
         <v>0.1</v>
@@ -3380,28 +3401,28 @@
     </row>
     <row r="47" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" s="1">
         <v>0.1</v>
@@ -3424,28 +3445,28 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48" s="1">
         <v>0.1</v>
@@ -3468,28 +3489,28 @@
     </row>
     <row r="49" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I49" s="1">
         <v>0.3</v>
@@ -3512,28 +3533,28 @@
     </row>
     <row r="50" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I50" s="1">
         <v>0.3</v>
@@ -3556,28 +3577,28 @@
     </row>
     <row r="51" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" s="1">
         <v>0.1</v>
@@ -3600,28 +3621,28 @@
     </row>
     <row r="52" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="1">
         <v>0.1</v>
@@ -3644,28 +3665,28 @@
     </row>
     <row r="53" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" s="1">
         <v>0.1</v>
@@ -3688,28 +3709,28 @@
     </row>
     <row r="54" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I54" s="1">
         <v>0.1</v>
@@ -3732,28 +3753,28 @@
     </row>
     <row r="55" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I55" s="1">
         <v>0.1</v>
@@ -3776,28 +3797,28 @@
     </row>
     <row r="56" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I56" s="1">
         <v>0.1</v>
@@ -3820,28 +3841,28 @@
     </row>
     <row r="57" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I57" s="1">
         <v>0.1</v>
@@ -3864,28 +3885,28 @@
     </row>
     <row r="58" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I58" s="1">
         <v>0.3</v>
@@ -3908,28 +3929,28 @@
     </row>
     <row r="59" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I59" s="1">
         <v>0.3</v>
@@ -3952,28 +3973,28 @@
     </row>
     <row r="60" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I60" s="1">
         <v>0.2</v>
@@ -3992,28 +4013,28 @@
     </row>
     <row r="61" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I61" s="1">
         <v>0.1</v>
@@ -4032,28 +4053,28 @@
     </row>
     <row r="62" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I62" s="1">
         <v>0.1</v>
@@ -4076,28 +4097,28 @@
     </row>
     <row r="63" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I63" s="1">
         <v>0.3</v>
@@ -4120,28 +4141,28 @@
     </row>
     <row r="64" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -4164,28 +4185,28 @@
     </row>
     <row r="65" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -4208,28 +4229,28 @@
     </row>
     <row r="66" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
@@ -4248,28 +4269,28 @@
     </row>
     <row r="67" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
@@ -4288,28 +4309,28 @@
     </row>
     <row r="68" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -4324,7 +4345,7 @@
         <v>60</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -4332,28 +4353,28 @@
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
@@ -4368,7 +4389,7 @@
         <v>60</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N69" s="1">
         <v>0</v>
@@ -4376,28 +4397,28 @@
     </row>
     <row r="70" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I70" s="1">
         <v>0.5</v>
@@ -4420,28 +4441,28 @@
     </row>
     <row r="71" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I71" s="1">
         <v>0.5</v>
@@ -4464,28 +4485,28 @@
     </row>
     <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -4504,26 +4525,26 @@
     </row>
     <row r="73" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I73" s="1">
         <v>2</v>
@@ -4542,28 +4563,28 @@
     </row>
     <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
@@ -4582,28 +4603,28 @@
     </row>
     <row r="75" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -4622,28 +4643,28 @@
     </row>
     <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I76" s="1">
         <v>0.5</v>
@@ -4662,28 +4683,28 @@
     </row>
     <row r="77" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -4702,28 +4723,28 @@
     </row>
     <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I78" s="1">
         <v>0.2</v>
@@ -4746,28 +4767,28 @@
     </row>
     <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I79" s="1">
         <v>0.1</v>
@@ -4786,28 +4807,28 @@
     </row>
     <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I80" s="1">
         <v>0.2</v>
@@ -4830,28 +4851,28 @@
     </row>
     <row r="81" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I81" s="1">
         <v>0.1</v>
@@ -4874,28 +4895,28 @@
     </row>
     <row r="82" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I82" s="1">
         <v>0.1</v>
@@ -4918,28 +4939,28 @@
     </row>
     <row r="83" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I83" s="1">
         <v>0.2</v>
@@ -4962,28 +4983,28 @@
     </row>
     <row r="84" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I84" s="1">
         <v>0.2</v>
@@ -5006,28 +5027,28 @@
     </row>
     <row r="85" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I85" s="1">
         <v>0.2</v>
@@ -5050,28 +5071,28 @@
     </row>
     <row r="86" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I86" s="1">
         <v>0.2</v>
@@ -5094,28 +5115,28 @@
     </row>
     <row r="87" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I87" s="1">
         <v>0.3</v>
@@ -5134,28 +5155,28 @@
     </row>
     <row r="88" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I88" s="1">
         <v>0.2</v>
@@ -5178,28 +5199,28 @@
     </row>
     <row r="89" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I89" s="1">
         <v>0.2</v>
@@ -5222,28 +5243,28 @@
     </row>
     <row r="90" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I90" s="1">
         <v>0.2</v>
@@ -5266,28 +5287,28 @@
     </row>
     <row r="91" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I91" s="1">
         <v>0.2</v>
@@ -5310,28 +5331,28 @@
     </row>
     <row r="92" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I92" s="1">
         <v>0.2</v>
@@ -5354,28 +5375,28 @@
     </row>
     <row r="93" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I93" s="1">
         <v>0.2</v>
@@ -5398,28 +5419,28 @@
     </row>
     <row r="94" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I94" s="1">
         <v>0.1</v>
@@ -5442,28 +5463,28 @@
     </row>
     <row r="95" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I95" s="1">
         <v>0.1</v>
@@ -5482,28 +5503,28 @@
     </row>
     <row r="96" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I96" s="1">
         <v>0.3</v>
@@ -5522,28 +5543,28 @@
     </row>
     <row r="97" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I97" s="1">
         <v>0.5</v>
@@ -5562,28 +5583,28 @@
     </row>
     <row r="98" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I98" s="1">
         <v>0.2</v>
@@ -5602,28 +5623,28 @@
     </row>
     <row r="99" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I99" s="1">
         <v>0.1</v>
@@ -5642,28 +5663,28 @@
     </row>
     <row r="100" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F100" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I100" s="1">
         <v>2</v>
@@ -5686,28 +5707,28 @@
     </row>
     <row r="101" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I101" s="1">
         <v>0.2</v>
@@ -5730,28 +5751,28 @@
     </row>
     <row r="102" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F102" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I102" s="1">
         <v>2</v>
@@ -5770,28 +5791,28 @@
     </row>
     <row r="103" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F103" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I103" s="1">
         <v>0.5</v>
@@ -5810,28 +5831,28 @@
     </row>
     <row r="104" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F104" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I104" s="1">
         <v>3</v>
@@ -5850,28 +5871,28 @@
     </row>
     <row r="105" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I105" s="1">
         <v>0.1</v>
@@ -5894,28 +5915,28 @@
     </row>
     <row r="106" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F106" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I106" s="1">
         <v>0.1</v>
@@ -5938,28 +5959,28 @@
     </row>
     <row r="107" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F107" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I107" s="1">
         <v>0.1</v>
@@ -5982,28 +6003,28 @@
     </row>
     <row r="108" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I108" s="1">
         <v>0.1</v>
@@ -6026,28 +6047,28 @@
     </row>
     <row r="109" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I109" s="1">
         <v>0.1</v>
@@ -6070,28 +6091,28 @@
     </row>
     <row r="110" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F110" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I110" s="1">
         <v>0.1</v>
@@ -6114,28 +6135,28 @@
     </row>
     <row r="111" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F111" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I111" s="1">
         <v>0.1</v>
@@ -6154,28 +6175,28 @@
     </row>
     <row r="112" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F112" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I112" s="1">
         <v>0.2</v>
@@ -6198,28 +6219,28 @@
     </row>
     <row r="113" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F113" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I113" s="1">
         <v>0.2</v>
@@ -6242,28 +6263,28 @@
     </row>
     <row r="114" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F114" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I114" s="1">
         <v>0.5</v>
@@ -6286,28 +6307,28 @@
     </row>
     <row r="115" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I115" s="1">
         <v>0.5</v>
@@ -6330,28 +6351,28 @@
     </row>
     <row r="116" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F116" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I116" s="1">
         <v>0.5</v>
@@ -6374,28 +6395,28 @@
     </row>
     <row r="117" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F117" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I117" s="1">
         <v>0.5</v>
@@ -6418,28 +6439,28 @@
     </row>
     <row r="118" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F118" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I118" s="1">
         <v>0.5</v>
@@ -6462,28 +6483,28 @@
     </row>
     <row r="119" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F119" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I119" s="1">
         <v>0.5</v>
@@ -6506,28 +6527,28 @@
     </row>
     <row r="120" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I120" s="1">
         <v>0.5</v>
@@ -6546,28 +6567,28 @@
     </row>
     <row r="121" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F121" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I121" s="1">
         <v>0.2</v>
@@ -6590,28 +6611,28 @@
     </row>
     <row r="122" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F122" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I122" s="1">
         <v>0.2</v>
@@ -6630,28 +6651,28 @@
     </row>
     <row r="123" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F123" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I123" s="1">
         <v>0.2</v>
@@ -6670,28 +6691,28 @@
     </row>
     <row r="124" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I124" s="1">
         <v>0.2</v>
@@ -6710,28 +6731,28 @@
     </row>
     <row r="125" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I125" s="1">
         <v>0.2</v>
@@ -6754,28 +6775,28 @@
     </row>
     <row r="126" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I126" s="1">
         <v>0.2</v>
@@ -6798,28 +6819,28 @@
     </row>
     <row r="127" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F127" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I127" s="1">
         <v>0.2</v>
@@ -6842,28 +6863,28 @@
     </row>
     <row r="128" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F128" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I128" s="1">
         <v>0.2</v>
@@ -6886,28 +6907,28 @@
     </row>
     <row r="129" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F129" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I129" s="1">
         <v>0.2</v>
@@ -6930,28 +6951,28 @@
     </row>
     <row r="130" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F130" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I130" s="1">
         <v>0.2</v>
@@ -6974,28 +6995,28 @@
     </row>
     <row r="131" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F131" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I131" s="1">
         <v>0.1</v>
@@ -7014,28 +7035,28 @@
     </row>
     <row r="132" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F132" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I132" s="1">
         <v>0.1</v>
@@ -7054,28 +7075,28 @@
     </row>
     <row r="133" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F133" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I133" s="1">
         <v>0.5</v>
@@ -7098,28 +7119,28 @@
     </row>
     <row r="134" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F134" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I134" s="1">
         <v>0.3</v>
@@ -7138,28 +7159,28 @@
     </row>
     <row r="135" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="I135" s="1">
         <v>1</v>
@@ -7182,28 +7203,28 @@
     </row>
     <row r="136" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F136" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I136" s="1">
         <v>1</v>
@@ -7226,28 +7247,28 @@
     </row>
     <row r="137" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F137" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I137" s="1">
         <v>0.5</v>
@@ -7258,7 +7279,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N137" s="1">
         <v>0</v>
@@ -7266,28 +7287,28 @@
     </row>
     <row r="138" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F138" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I138" s="1">
         <v>1</v>
@@ -7306,28 +7327,28 @@
     </row>
     <row r="139" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F139" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I139" s="1">
         <v>0.5</v>
@@ -7346,28 +7367,28 @@
     </row>
     <row r="140" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D140" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F140" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I140" s="1">
         <v>0.5</v>
@@ -7386,28 +7407,28 @@
     </row>
     <row r="141" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F141" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I141" s="1">
         <v>0.2</v>
@@ -7430,28 +7451,28 @@
     </row>
     <row r="142" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F142" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I142" s="1">
         <v>0.3</v>
@@ -7474,28 +7495,28 @@
     </row>
     <row r="143" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F143" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I143" s="1">
         <v>0.1</v>
@@ -7518,28 +7539,28 @@
     </row>
     <row r="144" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F144" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I144" s="1">
         <v>0.1</v>
@@ -7562,28 +7583,28 @@
     </row>
     <row r="145" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F145" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I145" s="1">
         <v>0.1</v>
@@ -7602,28 +7623,28 @@
     </row>
     <row r="146" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D146" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F146" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="I146" s="1">
         <v>1</v>
@@ -7646,28 +7667,28 @@
     </row>
     <row r="147" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -7690,28 +7711,28 @@
     </row>
     <row r="148" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D148" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F148" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I148" s="1">
         <v>0.5</v>
@@ -7730,28 +7751,28 @@
     </row>
     <row r="149" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I149" s="1">
         <v>0.1</v>
@@ -7774,28 +7795,28 @@
     </row>
     <row r="150" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F150" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I150" s="1">
         <v>0.1</v>
@@ -7818,28 +7839,28 @@
     </row>
     <row r="151" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I151" s="1">
         <v>0.3</v>
@@ -7862,28 +7883,28 @@
     </row>
     <row r="152" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F152" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I152" s="1">
         <v>0.1</v>
@@ -7906,28 +7927,28 @@
     </row>
     <row r="153" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F153" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I153" s="1">
         <v>0.3</v>
@@ -7950,28 +7971,28 @@
     </row>
     <row r="154" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F154" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I154" s="1">
         <v>0.2</v>
@@ -7994,28 +8015,28 @@
     </row>
     <row r="155" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F155" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I155" s="1">
         <v>0.2</v>
@@ -8038,28 +8059,28 @@
     </row>
     <row r="156" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F156" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I156" s="1">
         <v>0.3</v>
@@ -8082,28 +8103,28 @@
     </row>
     <row r="157" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F157" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I157" s="1">
         <v>0.1</v>
@@ -8126,28 +8147,28 @@
     </row>
     <row r="158" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I158" s="1">
         <v>0.2</v>
@@ -8170,28 +8191,28 @@
     </row>
     <row r="159" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F159" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I159" s="1">
         <v>0.5</v>
@@ -8210,28 +8231,28 @@
     </row>
     <row r="160" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F160" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I160" s="1">
         <v>0.5</v>
@@ -8250,28 +8271,28 @@
     </row>
     <row r="161" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F161" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I161" s="1">
         <v>1</v>
@@ -8290,28 +8311,28 @@
     </row>
     <row r="162" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F162" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I162" s="1">
         <v>1</v>
@@ -8334,28 +8355,28 @@
     </row>
     <row r="163" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F163" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I163" s="1">
         <v>0.5</v>
@@ -8374,28 +8395,28 @@
     </row>
     <row r="164" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I164" s="1">
         <v>0.1</v>
@@ -8418,28 +8439,28 @@
     </row>
     <row r="165" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I165" s="1">
         <v>0.2</v>
@@ -8462,28 +8483,28 @@
     </row>
     <row r="166" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I166" s="1">
         <v>0.1</v>
@@ -8506,28 +8527,28 @@
     </row>
     <row r="167" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F167" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I167" s="1">
         <v>0.1</v>
@@ -8550,28 +8571,28 @@
     </row>
     <row r="168" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F168" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I168" s="1">
         <v>0.2</v>
@@ -8594,28 +8615,28 @@
     </row>
     <row r="169" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F169" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I169" s="1">
         <v>0.2</v>
@@ -8638,28 +8659,28 @@
     </row>
     <row r="170" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F170" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I170" s="1">
         <v>0.2</v>
@@ -8682,28 +8703,28 @@
     </row>
     <row r="171" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F171" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I171" s="1">
         <v>1</v>
@@ -8726,28 +8747,28 @@
     </row>
     <row r="172" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D172" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I172" s="1">
         <v>0.1</v>
@@ -8770,28 +8791,28 @@
     </row>
     <row r="173" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D173" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F173" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I173" s="1">
         <v>0.1</v>
@@ -8814,28 +8835,28 @@
     </row>
     <row r="174" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D174" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F174" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I174" s="1">
         <v>0.2</v>
@@ -8854,28 +8875,28 @@
     </row>
     <row r="175" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F175" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I175" s="1">
         <v>0.1</v>
@@ -8898,28 +8919,28 @@
     </row>
     <row r="176" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I176" s="1">
         <v>1</v>
@@ -8938,28 +8959,28 @@
     </row>
     <row r="177" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D177" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F177" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I177" s="1">
         <v>1</v>
@@ -8978,28 +8999,28 @@
     </row>
     <row r="178" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I178" s="1">
         <v>0.3</v>
@@ -9022,28 +9043,28 @@
     </row>
     <row r="179" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F179" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I179" s="1">
         <v>1</v>
@@ -9066,28 +9087,28 @@
     </row>
     <row r="180" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F180" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I180" s="1">
         <v>0.5</v>
@@ -9110,28 +9131,28 @@
     </row>
     <row r="181" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F181" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I181" s="1">
         <v>0.2</v>
@@ -9150,28 +9171,28 @@
     </row>
     <row r="182" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I182" s="1">
         <v>1</v>
@@ -9194,28 +9215,28 @@
     </row>
     <row r="183" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F183" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
@@ -9238,28 +9259,28 @@
     </row>
     <row r="184" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F184" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I184" s="1">
         <v>0.2</v>
@@ -9282,28 +9303,28 @@
     </row>
     <row r="185" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F185" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I185" s="1">
         <v>0.2</v>
@@ -9326,28 +9347,28 @@
     </row>
     <row r="186" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F186" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I186" s="1">
         <v>3</v>
@@ -9370,28 +9391,28 @@
     </row>
     <row r="187" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F187" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I187" s="1">
         <v>1</v>
@@ -9414,28 +9435,28 @@
     </row>
     <row r="188" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F188" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I188" s="1">
         <v>0.5</v>
@@ -9454,19 +9475,19 @@
     </row>
     <row r="189" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F189" s="1" t="b">
         <v>0</v>
@@ -9486,26 +9507,26 @@
     </row>
     <row r="190" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F190" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I190" s="1">
         <v>5</v>
@@ -9524,26 +9545,26 @@
     </row>
     <row r="191" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F191" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I191" s="1">
         <v>5</v>
@@ -9566,26 +9587,26 @@
     </row>
     <row r="192" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D192" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F192" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I192" s="1">
         <v>5</v>
@@ -9608,28 +9629,28 @@
     </row>
     <row r="193" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I193" s="1">
         <v>25</v>
@@ -9652,26 +9673,26 @@
     </row>
     <row r="194" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F194" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I194" s="1">
         <v>20</v>
@@ -9694,26 +9715,26 @@
     </row>
     <row r="195" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F195" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I195" s="1">
         <v>20</v>
@@ -9736,26 +9757,26 @@
     </row>
     <row r="196" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F196" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I196" s="1">
         <v>20</v>
@@ -9774,28 +9795,28 @@
     </row>
     <row r="197" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F197" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I197" s="1">
         <v>4</v>
@@ -9818,26 +9839,26 @@
     </row>
     <row r="198" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F198" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I198" s="1">
         <v>5</v>
@@ -9856,28 +9877,28 @@
     </row>
     <row r="199" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F199" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I199" s="1">
         <v>3</v>
@@ -9900,28 +9921,28 @@
     </row>
     <row r="200" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D200" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F200" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I200" s="1">
         <v>3</v>
@@ -9944,28 +9965,28 @@
     </row>
     <row r="201" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D201" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F201" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I201" s="1">
         <v>5</v>
@@ -9988,28 +10009,28 @@
     </row>
     <row r="202" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D202" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F202" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I202" s="1">
         <v>5</v>
@@ -10032,28 +10053,28 @@
     </row>
     <row r="203" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D203" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F203" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I203" s="1">
         <v>5</v>
@@ -10076,28 +10097,28 @@
     </row>
     <row r="204" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D204" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F204" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I204" s="1">
         <v>5</v>
@@ -10120,28 +10141,28 @@
     </row>
     <row r="205" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D205" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F205" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I205" s="1">
         <v>5</v>
@@ -10164,28 +10185,28 @@
     </row>
     <row r="206" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D206" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F206" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I206" s="1">
         <v>5</v>
@@ -10208,28 +10229,28 @@
     </row>
     <row r="207" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D207" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F207" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I207" s="1">
         <v>5</v>
@@ -10252,26 +10273,26 @@
     </row>
     <row r="208" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D208" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F208" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I208" s="1">
         <v>5</v>
@@ -10290,28 +10311,28 @@
     </row>
     <row r="209" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D209" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F209" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I209" s="1">
         <v>5</v>
@@ -10330,28 +10351,28 @@
     </row>
     <row r="210" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F210" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I210" s="1">
         <v>5</v>
@@ -10370,28 +10391,28 @@
     </row>
     <row r="211" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F211" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I211" s="1">
         <v>5</v>
@@ -10414,28 +10435,28 @@
     </row>
     <row r="212" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F212" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H212" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D212" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F212" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="I212" s="1">
         <v>5</v>
@@ -10458,28 +10479,28 @@
     </row>
     <row r="213" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I213" s="1">
         <v>5</v>
@@ -10502,28 +10523,28 @@
     </row>
     <row r="214" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I214" s="1">
         <v>5</v>
@@ -10542,28 +10563,28 @@
     </row>
     <row r="215" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F215" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I215" s="1">
         <v>5</v>
@@ -10586,28 +10607,28 @@
     </row>
     <row r="216" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F216" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I216" s="1">
         <v>5</v>
@@ -10630,28 +10651,28 @@
     </row>
     <row r="217" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F217" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I217" s="1">
         <v>5</v>
@@ -10674,28 +10695,28 @@
     </row>
     <row r="218" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F218" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I218" s="1">
         <v>5</v>
@@ -10718,28 +10739,28 @@
     </row>
     <row r="219" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I219" s="1">
         <v>5</v>
@@ -10762,28 +10783,28 @@
     </row>
     <row r="220" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D220" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F220" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I220" s="1">
         <v>5</v>
@@ -10806,28 +10827,28 @@
     </row>
     <row r="221" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D221" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F221" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I221" s="1">
         <v>5</v>
@@ -10850,28 +10871,28 @@
     </row>
     <row r="222" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D222" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F222" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I222" s="1">
         <v>5</v>
@@ -10894,28 +10915,28 @@
     </row>
     <row r="223" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D223" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F223" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D223" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F223" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H223" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I223" s="1">
         <v>2</v>
@@ -10938,28 +10959,28 @@
     </row>
     <row r="224" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D224" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D224" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F224" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H224" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I224" s="1">
         <v>2</v>
@@ -10982,28 +11003,28 @@
     </row>
     <row r="225" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F225" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I225" s="1">
         <v>5</v>
@@ -11026,28 +11047,28 @@
     </row>
     <row r="226" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I226" s="1">
         <v>5</v>
@@ -11070,28 +11091,28 @@
     </row>
     <row r="227" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D227" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F227" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I227" s="1">
         <v>5</v>
@@ -11114,28 +11135,28 @@
     </row>
     <row r="228" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I228" s="1">
         <v>5</v>
@@ -11158,28 +11179,28 @@
     </row>
     <row r="229" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I229" s="1">
         <v>5</v>
@@ -11202,28 +11223,28 @@
     </row>
     <row r="230" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D230" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F230" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I230" s="1">
         <v>5</v>
@@ -11246,28 +11267,28 @@
     </row>
     <row r="231" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D231" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F231" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D231" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F231" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H231" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I231" s="1">
         <v>5</v>
@@ -11290,28 +11311,28 @@
     </row>
     <row r="232" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F232" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I232" s="1">
         <v>5</v>
@@ -11334,28 +11355,28 @@
     </row>
     <row r="233" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D233" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F233" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D233" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F233" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H233" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I233" s="1">
         <v>5</v>
@@ -11378,28 +11399,28 @@
     </row>
     <row r="234" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D234" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F234" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D234" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F234" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H234" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I234" s="1">
         <v>5</v>
@@ -11422,28 +11443,28 @@
     </row>
     <row r="235" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D235" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F235" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D235" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F235" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H235" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I235" s="1">
         <v>5</v>
@@ -11466,19 +11487,19 @@
     </row>
     <row r="236" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F236" s="1" t="b">
         <v>0</v>
@@ -11498,19 +11519,19 @@
     </row>
     <row r="237" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F237" s="1" t="b">
         <v>0</v>
@@ -11530,28 +11551,28 @@
     </row>
     <row r="238" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F238" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I238" s="1">
         <v>5</v>
@@ -11574,19 +11595,19 @@
     </row>
     <row r="239" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F239" s="1" t="b">
         <v>0</v>
@@ -11606,19 +11627,19 @@
     </row>
     <row r="240" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F240" s="1" t="b">
         <v>0</v>
@@ -11638,19 +11659,19 @@
     </row>
     <row r="241" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F241" s="1" t="b">
         <v>0</v>
@@ -11670,19 +11691,19 @@
     </row>
     <row r="242" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D242" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F242" s="1" t="b">
         <v>0</v>
@@ -11702,19 +11723,19 @@
     </row>
     <row r="243" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F243" s="1" t="b">
         <v>0</v>
@@ -11732,19 +11753,19 @@
     </row>
     <row r="244" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F244" s="1" t="b">
         <v>0</v>
@@ -11764,19 +11785,19 @@
     </row>
     <row r="245" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F245" s="1" t="b">
         <v>0</v>
@@ -11796,19 +11817,19 @@
     </row>
     <row r="246" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F246" s="1" t="b">
         <v>0</v>
@@ -11828,19 +11849,19 @@
     </row>
     <row r="247" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F247" s="1" t="b">
         <v>0</v>
@@ -11860,19 +11881,19 @@
     </row>
     <row r="248" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F248" s="1" t="b">
         <v>0</v>
@@ -11892,19 +11913,19 @@
     </row>
     <row r="249" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F249" s="1" t="b">
         <v>0</v>
@@ -11924,19 +11945,19 @@
     </row>
     <row r="250" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F250" s="1" t="b">
         <v>0</v>
@@ -11956,19 +11977,19 @@
     </row>
     <row r="251" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F251" s="1" t="b">
         <v>0</v>
@@ -11988,19 +12009,19 @@
     </row>
     <row r="252" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F252" s="1" t="b">
         <v>0</v>
